--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_TORSBY/Översikt TORSBY.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45119</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45126</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45126</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45127</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45131</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
